--- a/Documenten/pouleschema.xlsx
+++ b/Documenten/pouleschema.xlsx
@@ -727,6 +727,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
